--- a/data/extracted_data/raw/Farrell_etal_2015_Fig3.xlsx
+++ b/data/extracted_data/raw/Farrell_etal_2015_Fig3.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B17D413-9E2B-644D-9B76-A73653B430F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F91F6-AD9A-CB4D-A96D-FBDABB87AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3680" windowWidth="26840" windowHeight="15940" xr2:uid="{5A2CB4CB-A52D-7941-AE2C-E505A362ED9D}"/>
+    <workbookView xWindow="6460" yWindow="500" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{5A2CB4CB-A52D-7941-AE2C-E505A362ED9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Farrell_etal_2015_Fig3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Farrell_etal_2015_Fig3" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
   <si>
     <t>species</t>
   </si>
@@ -37,19 +41,58 @@
     <t>toxicity</t>
   </si>
   <si>
-    <t>Pacfiic oyster (diploid)</t>
-  </si>
-  <si>
     <t>GTX1,4</t>
   </si>
   <si>
     <t>GTX2,3</t>
   </si>
   <si>
-    <t>Sydney rock oyster</t>
+    <t>figure</t>
   </si>
   <si>
-    <t>Pacfiic oyster (triploid)</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Diploid C. gigas</t>
+  </si>
+  <si>
+    <t>22°C</t>
+  </si>
+  <si>
+    <t>27°C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S. glomerata</t>
+  </si>
+  <si>
+    <t>Triploid C. gigas</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of toxicity</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -533,8 +576,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -591,6 +645,364 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45863.415759606483" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="24" xr:uid="{6B4638BE-3A44-AB45-A7A0-81A30FF1BE06}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F25" sheet="Farrell_etal_2015_Fig3"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="figure" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="species" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Diploid C. gigas"/>
+        <s v="S. glomerata"/>
+        <s v="Triploid C. gigas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="toxin" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="treatment" numFmtId="0">
+      <sharedItems count="2">
+        <s v="22°C"/>
+        <s v="27°C"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="toxicity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.752688172042999" maxValue="162.410071942446"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
+  <r>
+    <s v="A"/>
+    <x v="0"/>
+    <s v="GTX1,4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="162.410071942446"/>
+  </r>
+  <r>
+    <s v="A"/>
+    <x v="0"/>
+    <s v="GTX1,4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="90.1079136690647"/>
+  </r>
+  <r>
+    <s v="A"/>
+    <x v="0"/>
+    <s v="GTX1,4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="43.165467625899197"/>
+  </r>
+  <r>
+    <s v="A"/>
+    <x v="0"/>
+    <s v="GTX1,4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="26.978417266187002"/>
+  </r>
+  <r>
+    <s v="B"/>
+    <x v="0"/>
+    <s v="GTX2,3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="140.28776978417201"/>
+  </r>
+  <r>
+    <s v="B"/>
+    <x v="0"/>
+    <s v="GTX2,3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="151.079136690647"/>
+  </r>
+  <r>
+    <s v="B"/>
+    <x v="0"/>
+    <s v="GTX2,3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="89.568345323740999"/>
+  </r>
+  <r>
+    <s v="B"/>
+    <x v="0"/>
+    <s v="GTX2,3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="74.460431654676199"/>
+  </r>
+  <r>
+    <s v="C"/>
+    <x v="1"/>
+    <s v="GTX1,4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="38.709677419354797"/>
+  </r>
+  <r>
+    <s v="C"/>
+    <x v="1"/>
+    <s v="GTX1,4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20.430107526881699"/>
+  </r>
+  <r>
+    <s v="C"/>
+    <x v="1"/>
+    <s v="GTX1,4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="13.9784946236559"/>
+  </r>
+  <r>
+    <s v="C"/>
+    <x v="1"/>
+    <s v="GTX1,4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10.752688172042999"/>
+  </r>
+  <r>
+    <s v="D"/>
+    <x v="1"/>
+    <s v="GTX2,3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <s v="D"/>
+    <x v="1"/>
+    <s v="GTX2,3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="38.172043010752702"/>
+  </r>
+  <r>
+    <s v="D"/>
+    <x v="1"/>
+    <s v="GTX2,3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="25.268817204301001"/>
+  </r>
+  <r>
+    <s v="D"/>
+    <x v="1"/>
+    <s v="GTX2,3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="27.9569892473118"/>
+  </r>
+  <r>
+    <s v="E"/>
+    <x v="2"/>
+    <s v="GTX1,4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31.8345323741007"/>
+  </r>
+  <r>
+    <s v="E"/>
+    <x v="2"/>
+    <s v="GTX1,4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="31.8345323741007"/>
+  </r>
+  <r>
+    <s v="E"/>
+    <x v="2"/>
+    <s v="GTX1,4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="24.280575539568201"/>
+  </r>
+  <r>
+    <s v="E"/>
+    <x v="2"/>
+    <s v="GTX1,4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="23.741007194244599"/>
+  </r>
+  <r>
+    <s v="F"/>
+    <x v="2"/>
+    <s v="GTX2,3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50.179856115107903"/>
+  </r>
+  <r>
+    <s v="F"/>
+    <x v="2"/>
+    <s v="GTX2,3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="62.050359712230097"/>
+  </r>
+  <r>
+    <s v="F"/>
+    <x v="2"/>
+    <s v="GTX2,3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="33.4532374100718"/>
+  </r>
+  <r>
+    <s v="F"/>
+    <x v="2"/>
+    <s v="GTX2,3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="96.582733812949598"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB7AE9C9-565F-2D4F-B009-35D94721D4B3}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="1"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of toxicity" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,436 +1321,920 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BE12C4-491F-6246-9FBA-EA45615CA368}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A21C63-4753-6249-9AA9-DA96E35F3CF4}">
+  <dimension ref="A3:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>703.1368453624184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>435.43165467625818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>302.69784172661798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>132.7338129496402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>127.9569892473117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>88.70967741935479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>39.247311827956899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>139.74820143884858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>82.014388489208599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>57.733812949639997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>654.14636033108923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>342.62589928057491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>241.18705035971169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>101.43884892086319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>97.311827956989191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>58.602150537634401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>38.709677419354797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>214.20863309352501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>93.884892086330794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>120.3237410071942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1357.2832056935076</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BE12C4-491F-6246-9FBA-EA45615CA368}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>162.410071942446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>90.1079136690647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>43.165467625899197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>26.978417266187002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>140.28776978417201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>151.079136690647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>89.568345323740999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>74.460431654676199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>38.709677419354797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>20.430107526881699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>13.9784946236559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10.752688172042999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>38.172043010752702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>25.268817204301001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>27.9569892473118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>31.8345323741007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>31.8345323741007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>24.280575539568201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>23.741007194244599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>50.179856115107903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>62.050359712230097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>33.4532374100718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>96.582733812949598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>302.69784172661798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>132.7338129496402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>88.70967741935479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>39.247311827956899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>82.014388489208599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>57.733812949639997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>241.18705035971169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>101.43884892086319</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C34" t="s">
         <v>22</v>
       </c>
-      <c r="E14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>58.602150537634401</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>38.709677419354797</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
         <v>22</v>
       </c>
-      <c r="E18">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>93.884892086330794</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>45</v>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>120.3237410071942</v>
       </c>
     </row>
   </sheetData>
